--- a/external_packages/buzcode/preprocessing/probeGeometries/A1x64-Poly2-6mm-23s-160.xlsx
+++ b/external_packages/buzcode/preprocessing/probeGeometries/A1x64-Poly2-6mm-23s-160.xlsx
@@ -520,7 +520,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -622,6 +622,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
@@ -2006,23 +2009,23 @@
         <v>15</v>
       </c>
       <c r="J3" s="26">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K3" s="20">
         <f>VLOOKUP(J3,A$3:B$66,2)</f>
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L3" s="27">
         <f>K3</f>
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M3" s="28">
         <f>L3+32</f>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N3" s="29">
         <f>L3+64</f>
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="12"/>
@@ -2061,23 +2064,23 @@
         <v>15</v>
       </c>
       <c r="J4" s="26">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4" s="20">
         <f>VLOOKUP(J4,A$3:B$66,2)</f>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L4" s="27">
         <f>K4</f>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M4" s="28">
         <f>L4+32</f>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="N4" s="29">
         <f>L4+64</f>
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="12"/>
@@ -2116,23 +2119,23 @@
         <v>15</v>
       </c>
       <c r="J5" s="26">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="20">
         <f>VLOOKUP(J5,A$3:B$66,2)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L5" s="27">
         <f>K5</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M5" s="28">
         <f>L5+32</f>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N5" s="29">
         <f>L5+64</f>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O5" s="18"/>
       <c r="P5" s="12"/>
@@ -2171,23 +2174,23 @@
         <v>15</v>
       </c>
       <c r="J6" s="26">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K6" s="20">
         <f>VLOOKUP(J6,A$3:B$66,2)</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="27">
         <f>K6</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M6" s="28">
         <f>L6+32</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N6" s="29">
         <f>L6+64</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="12"/>
@@ -2226,23 +2229,23 @@
         <v>15</v>
       </c>
       <c r="J7" s="26">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="20">
         <f>VLOOKUP(J7,A$3:B$66,2)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L7" s="27">
         <f>K7</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M7" s="28">
         <f>L7+32</f>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N7" s="29">
         <f>L7+64</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="12"/>
@@ -2281,23 +2284,23 @@
         <v>15</v>
       </c>
       <c r="J8" s="26">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K8" s="20">
         <f>VLOOKUP(J8,A$3:B$66,2)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L8" s="27">
         <f>K8</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M8" s="28">
         <f>L8+32</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N8" s="29">
         <f>L8+64</f>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="12"/>
@@ -2336,23 +2339,23 @@
         <v>15</v>
       </c>
       <c r="J9" s="26">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K9" s="20">
         <f>VLOOKUP(J9,A$3:B$66,2)</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L9" s="27">
         <f>K9</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M9" s="28">
         <f>L9+32</f>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N9" s="29">
         <f>L9+64</f>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="12"/>
@@ -2391,23 +2394,23 @@
         <v>15</v>
       </c>
       <c r="J10" s="26">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K10" s="20">
         <f>VLOOKUP(J10,A$3:B$66,2)</f>
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="L10" s="27">
         <f>K10</f>
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M10" s="28">
         <f>L10+32</f>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N10" s="29">
         <f>L10+64</f>
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="12"/>
@@ -2446,23 +2449,23 @@
         <v>15</v>
       </c>
       <c r="J11" s="26">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="K11" s="20">
         <f>VLOOKUP(J11,A$3:B$66,2)</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L11" s="27">
         <f>K11</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M11" s="28">
         <f>L11+32</f>
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="N11" s="29">
         <f>L11+64</f>
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="12"/>
@@ -2501,23 +2504,23 @@
         <v>15</v>
       </c>
       <c r="J12" s="26">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K12" s="20">
         <f>VLOOKUP(J12,A$3:B$66,2)</f>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L12" s="27">
         <f>K12</f>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M12" s="28">
         <f>L12+32</f>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="N12" s="29">
         <f>L12+64</f>
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="12"/>
@@ -2556,23 +2559,23 @@
         <v>15</v>
       </c>
       <c r="J13" s="26">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="K13" s="20">
         <f>VLOOKUP(J13,A$3:B$66,2)</f>
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L13" s="27">
         <f>K13</f>
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M13" s="28">
         <f>L13+32</f>
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="N13" s="29">
         <f>L13+64</f>
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="12"/>
@@ -2611,23 +2614,23 @@
         <v>15</v>
       </c>
       <c r="J14" s="26">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="K14" s="20">
         <f>VLOOKUP(J14,A$3:B$66,2)</f>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L14" s="27">
         <f>K14</f>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M14" s="28">
         <f>L14+32</f>
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="N14" s="29">
         <f>L14+64</f>
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="O14" s="18"/>
       <c r="P14" s="32"/>
@@ -2666,23 +2669,23 @@
         <v>15</v>
       </c>
       <c r="J15" s="26">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K15" s="20">
         <f>VLOOKUP(J15,A$3:B$66,2)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="27">
         <f>K15</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="28">
         <f>L15+32</f>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N15" s="29">
         <f>L15+64</f>
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="12"/>
@@ -2721,23 +2724,23 @@
         <v>15</v>
       </c>
       <c r="J16" s="26">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="K16" s="20">
         <f>VLOOKUP(J16,A$3:B$66,2)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L16" s="27">
         <f>K16</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M16" s="28">
         <f>L16+32</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="N16" s="29">
         <f>L16+64</f>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="12"/>
@@ -2776,23 +2779,23 @@
         <v>15</v>
       </c>
       <c r="J17" s="26">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K17" s="20">
         <f>VLOOKUP(J17,A$3:B$66,2)</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L17" s="27">
         <f>K17</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M17" s="28">
         <f>L17+32</f>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N17" s="29">
         <f>L17+64</f>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="O17" s="18"/>
       <c r="P17" s="12"/>
@@ -2831,23 +2834,23 @@
         <v>15</v>
       </c>
       <c r="J18" s="26">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K18" s="20">
         <f>VLOOKUP(J18,A$3:B$66,2)</f>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L18" s="27">
         <f>K18</f>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M18" s="28">
         <f>L18+32</f>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="N18" s="29">
         <f>L18+64</f>
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="O18" s="18"/>
       <c r="P18" s="12"/>
@@ -2886,23 +2889,23 @@
         <v>15</v>
       </c>
       <c r="J19" s="26">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K19" s="20">
         <f>VLOOKUP(J19,A$3:B$66,2)</f>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L19" s="27">
         <f>K19</f>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M19" s="28">
         <f>L19+32</f>
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="N19" s="29">
         <f>L19+64</f>
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="12"/>
@@ -2941,23 +2944,23 @@
         <v>15</v>
       </c>
       <c r="J20" s="26">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="K20" s="20">
         <f>VLOOKUP(J20,A$3:B$66,2)</f>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="L20" s="27">
         <f>K20</f>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M20" s="28">
         <f>L20+32</f>
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="N20" s="29">
         <f>L20+64</f>
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="O20" s="18"/>
       <c r="P20" s="12"/>
@@ -2996,23 +2999,23 @@
         <v>15</v>
       </c>
       <c r="J21" s="26">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K21" s="20">
         <f>VLOOKUP(J21,A$3:B$66,2)</f>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L21" s="27">
         <f>K21</f>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="M21" s="28">
         <f>L21+32</f>
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="N21" s="29">
         <f>L21+64</f>
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="O21" s="18"/>
       <c r="P21" s="12"/>
@@ -3051,23 +3054,23 @@
         <v>15</v>
       </c>
       <c r="J22" s="26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K22" s="20">
         <f>VLOOKUP(J22,A$3:B$66,2)</f>
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="L22" s="27">
         <f>K22</f>
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M22" s="28">
         <f>L22+32</f>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N22" s="29">
         <f>L22+64</f>
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="O22" s="18"/>
       <c r="P22" s="12"/>
@@ -3106,23 +3109,23 @@
         <v>15</v>
       </c>
       <c r="J23" s="26">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K23" s="20">
         <f>VLOOKUP(J23,A$3:B$66,2)</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="L23" s="27">
         <f>K23</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M23" s="28">
         <f>L23+32</f>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="N23" s="29">
         <f>L23+64</f>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="12"/>
@@ -3161,23 +3164,23 @@
         <v>15</v>
       </c>
       <c r="J24" s="26">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K24" s="20">
         <f>VLOOKUP(J24,A$3:B$66,2)</f>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L24" s="27">
         <f>K24</f>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M24" s="28">
         <f>L24+32</f>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N24" s="29">
         <f>L24+64</f>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O24" s="18"/>
       <c r="P24" s="12"/>
@@ -3216,23 +3219,23 @@
         <v>15</v>
       </c>
       <c r="J25" s="26">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="K25" s="20">
         <f>VLOOKUP(J25,A$3:B$66,2)</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L25" s="27">
         <f>K25</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M25" s="28">
         <f>L25+32</f>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="N25" s="29">
         <f>L25+64</f>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="O25" s="18"/>
       <c r="P25" s="12"/>
@@ -3271,23 +3274,23 @@
         <v>15</v>
       </c>
       <c r="J26" s="26">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="K26" s="20">
         <f>VLOOKUP(J26,A$3:B$66,2)</f>
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="L26" s="27">
         <f>K26</f>
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="M26" s="28">
         <f>L26+32</f>
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="N26" s="29">
         <f>L26+64</f>
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="32"/>
@@ -3326,23 +3329,23 @@
         <v>15</v>
       </c>
       <c r="J27" s="26">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K27" s="20">
         <f>VLOOKUP(J27,A$3:B$66,2)</f>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L27" s="27">
         <f>K27</f>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="M27" s="28">
         <f>L27+32</f>
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="N27" s="29">
         <f>L27+64</f>
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="12"/>
@@ -3381,23 +3384,23 @@
         <v>15</v>
       </c>
       <c r="J28" s="26">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="K28" s="20">
         <f>VLOOKUP(J28,A$3:B$66,2)</f>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="L28" s="27">
         <f>K28</f>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M28" s="28">
         <f>L28+32</f>
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="N28" s="29">
         <f>L28+64</f>
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="12"/>
@@ -3436,23 +3439,23 @@
         <v>15</v>
       </c>
       <c r="J29" s="26">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="K29" s="20">
         <f>VLOOKUP(J29,A$3:B$66,2)</f>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="L29" s="27">
         <f>K29</f>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="M29" s="28">
         <f>L29+32</f>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="N29" s="29">
         <f>L29+64</f>
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="O29" s="18"/>
       <c r="P29" s="12"/>
@@ -3491,23 +3494,23 @@
         <v>15</v>
       </c>
       <c r="J30" s="26">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K30" s="20">
         <f>VLOOKUP(J30,A$3:B$66,2)</f>
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="L30" s="27">
         <f>K30</f>
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M30" s="28">
         <f>L30+32</f>
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N30" s="29">
         <f>L30+64</f>
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="O30" s="18"/>
       <c r="P30" s="12"/>
@@ -3546,23 +3549,23 @@
         <v>15</v>
       </c>
       <c r="J31" s="26">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K31" s="20">
         <f>VLOOKUP(J31,A$3:B$66,2)</f>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="L31" s="27">
         <f>K31</f>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="M31" s="28">
         <f>L31+32</f>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N31" s="29">
         <f>L31+64</f>
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="O31" s="18"/>
       <c r="P31" s="12"/>
@@ -3601,23 +3604,23 @@
         <v>15</v>
       </c>
       <c r="J32" s="26">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K32" s="20">
         <f>VLOOKUP(J32,A$3:B$66,2)</f>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="L32" s="27">
         <f>K32</f>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M32" s="28">
         <f>L32+32</f>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="N32" s="29">
         <f>L32+64</f>
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="O32" s="18"/>
       <c r="P32" s="12"/>
@@ -3656,23 +3659,23 @@
         <v>15</v>
       </c>
       <c r="J33" s="26">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K33" s="20">
         <f>VLOOKUP(J33,A$3:B$66,2)</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="L33" s="27">
         <f>K33</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M33" s="28">
         <f>L33+32</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N33" s="29">
         <f>L33+64</f>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="O33" s="18"/>
       <c r="P33" s="12"/>
@@ -3711,23 +3714,23 @@
         <v>15</v>
       </c>
       <c r="J34" s="26">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K34" s="20">
         <f>VLOOKUP(J34,A$3:B$66,2)</f>
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="L34" s="27">
         <f>K34</f>
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="M34" s="28">
         <f>L34+32</f>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="N34" s="29">
         <f>L34+64</f>
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="O34" s="18"/>
       <c r="P34" s="12"/>
@@ -3766,23 +3769,23 @@
         <v>15</v>
       </c>
       <c r="J35" s="26">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K35" s="20">
         <f>VLOOKUP(J35,A$3:B$66,2)</f>
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="L35" s="27">
         <f>K35</f>
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="M35" s="28">
         <f>L35+32</f>
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N35" s="29">
         <f>L35+64</f>
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="O35" s="18"/>
       <c r="P35" s="12"/>
@@ -3821,23 +3824,23 @@
         <v>15</v>
       </c>
       <c r="J36" s="26">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="K36" s="20">
         <f>VLOOKUP(J36,A$3:B$66,2)</f>
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="L36" s="27">
         <f>K36</f>
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="M36" s="28">
         <f>L36+32</f>
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="N36" s="29">
         <f>L36+64</f>
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="O36" s="18"/>
       <c r="P36" s="12"/>
@@ -3876,23 +3879,23 @@
         <v>15</v>
       </c>
       <c r="J37" s="26">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="K37" s="20">
         <f>VLOOKUP(J37,A$3:B$66,2)</f>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="L37" s="27">
         <f>K37</f>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M37" s="28">
         <f>L37+32</f>
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="N37" s="29">
         <f>L37+64</f>
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="O37" s="18"/>
       <c r="P37" s="12"/>
@@ -3931,23 +3934,23 @@
         <v>15</v>
       </c>
       <c r="J38" s="26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K38" s="20">
         <f>VLOOKUP(J38,A$3:B$66,2)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L38" s="27">
         <f>K38</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M38" s="28">
         <f>L38+32</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N38" s="29">
         <f>L38+64</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O38" s="18"/>
       <c r="P38" s="32"/>
@@ -3986,23 +3989,23 @@
         <v>15</v>
       </c>
       <c r="J39" s="26">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39" s="20">
         <f>VLOOKUP(J39,A$3:B$66,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="27">
         <f>K39</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" s="28">
         <f>L39+32</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N39" s="29">
         <f>L39+64</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O39" s="18"/>
       <c r="P39" s="12"/>
@@ -4041,23 +4044,23 @@
         <v>15</v>
       </c>
       <c r="J40" s="26">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K40" s="20">
         <f>VLOOKUP(J40,A$3:B$66,2)</f>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L40" s="27">
         <f>K40</f>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M40" s="28">
         <f>L40+32</f>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="N40" s="29">
         <f>L40+64</f>
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O40" s="18"/>
       <c r="P40" s="12"/>
@@ -4096,23 +4099,23 @@
         <v>15</v>
       </c>
       <c r="J41" s="26">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="K41" s="20">
         <f>VLOOKUP(J41,A$3:B$66,2)</f>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="L41" s="27">
         <f>K41</f>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="M41" s="28">
         <f>L41+32</f>
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="N41" s="29">
         <f>L41+64</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="O41" s="18"/>
       <c r="P41" s="12"/>
@@ -4151,23 +4154,23 @@
         <v>15</v>
       </c>
       <c r="J42" s="26">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K42" s="20">
         <f>VLOOKUP(J42,A$3:B$66,2)</f>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="L42" s="27">
         <f>K42</f>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M42" s="28">
         <f>L42+32</f>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="N42" s="29">
         <f>L42+64</f>
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="O42" s="18"/>
       <c r="P42" s="32"/>
@@ -4205,24 +4208,24 @@
       <c r="I43" t="s" s="25">
         <v>15</v>
       </c>
-      <c r="J43" s="26">
-        <v>31</v>
+      <c r="J43" s="34">
+        <v>48</v>
       </c>
       <c r="K43" s="20">
         <f>VLOOKUP(J43,A$3:B$66,2)</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L43" s="27">
         <f>K43</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M43" s="28">
         <f>L43+32</f>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N43" s="29">
         <f>L43+64</f>
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O43" s="18"/>
       <c r="P43" s="12"/>
@@ -4261,23 +4264,23 @@
         <v>15</v>
       </c>
       <c r="J44" s="26">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="K44" s="20">
         <f>VLOOKUP(J44,A$3:B$66,2)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L44" s="27">
         <f>K44</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M44" s="28">
         <f>L44+32</f>
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="N44" s="29">
         <f>L44+64</f>
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="O44" s="18"/>
       <c r="P44" s="12"/>
@@ -4316,23 +4319,23 @@
         <v>15</v>
       </c>
       <c r="J45" s="26">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="K45" s="20">
         <f>VLOOKUP(J45,A$3:B$66,2)</f>
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="L45" s="27">
         <f>K45</f>
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M45" s="28">
         <f>L45+32</f>
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="N45" s="29">
         <f>L45+64</f>
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="O45" s="18"/>
       <c r="P45" s="12"/>
@@ -4371,23 +4374,23 @@
         <v>15</v>
       </c>
       <c r="J46" s="26">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K46" s="20">
         <f>VLOOKUP(J46,A$3:B$66,2)</f>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L46" s="27">
         <f>K46</f>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M46" s="28">
         <f>L46+32</f>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="N46" s="29">
         <f>L46+64</f>
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O46" s="18"/>
       <c r="P46" s="12"/>
@@ -4426,23 +4429,23 @@
         <v>15</v>
       </c>
       <c r="J47" s="26">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K47" s="20">
         <f>VLOOKUP(J47,A$3:B$66,2)</f>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="L47" s="27">
         <f>K47</f>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="M47" s="28">
         <f>L47+32</f>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N47" s="29">
         <f>L47+64</f>
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="O47" s="18"/>
       <c r="P47" s="12"/>
@@ -4481,23 +4484,23 @@
         <v>15</v>
       </c>
       <c r="J48" s="26">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K48" s="20">
         <f>VLOOKUP(J48,A$3:B$66,2)</f>
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="L48" s="27">
         <f>K48</f>
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M48" s="28">
         <f>L48+32</f>
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="N48" s="29">
         <f>L48+64</f>
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O48" s="18"/>
       <c r="P48" s="12"/>
@@ -4536,23 +4539,23 @@
         <v>15</v>
       </c>
       <c r="J49" s="26">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K49" s="20">
         <f>VLOOKUP(J49,A$3:B$66,2)</f>
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="L49" s="27">
         <f>K49</f>
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M49" s="28">
         <f>L49+32</f>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N49" s="29">
         <f>L49+64</f>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O49" s="18"/>
       <c r="P49" s="12"/>
@@ -4591,23 +4594,23 @@
         <v>15</v>
       </c>
       <c r="J50" s="26">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="K50" s="20">
         <f>VLOOKUP(J50,A$3:B$66,2)</f>
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="L50" s="27">
         <f>K50</f>
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="M50" s="28">
         <f>L50+32</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="N50" s="29">
         <f>L50+64</f>
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="O50" s="18"/>
       <c r="P50" s="12"/>
@@ -4646,23 +4649,23 @@
         <v>15</v>
       </c>
       <c r="J51" s="26">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="K51" s="20">
         <f>VLOOKUP(J51,A$3:B$66,2)</f>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="L51" s="27">
         <f>K51</f>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="M51" s="28">
         <f>L51+32</f>
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="N51" s="29">
         <f>L51+64</f>
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="O51" s="18"/>
       <c r="P51" s="12"/>
@@ -4701,23 +4704,23 @@
         <v>15</v>
       </c>
       <c r="J52" s="26">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="K52" s="20">
         <f>VLOOKUP(J52,A$3:B$66,2)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L52" s="27">
         <f>K52</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M52" s="28">
         <f>L52+32</f>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="N52" s="29">
         <f>L52+64</f>
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O52" s="18"/>
       <c r="P52" s="12"/>
@@ -4756,23 +4759,23 @@
         <v>15</v>
       </c>
       <c r="J53" s="26">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K53" s="20">
         <f>VLOOKUP(J53,A$3:B$66,2)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L53" s="27">
         <f>K53</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M53" s="28">
         <f>L53+32</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N53" s="29">
         <f>L53+64</f>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O53" s="18"/>
       <c r="P53" s="12"/>
@@ -4811,23 +4814,23 @@
         <v>15</v>
       </c>
       <c r="J54" s="26">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K54" s="20">
         <f>VLOOKUP(J54,A$3:B$66,2)</f>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="L54" s="27">
         <f>K54</f>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M54" s="28">
         <f>L54+32</f>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="N54" s="29">
         <f>L54+64</f>
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="O54" s="18"/>
       <c r="P54" s="32"/>
@@ -4839,7 +4842,7 @@
       <c r="V54" s="4"/>
     </row>
     <row r="55" ht="29.25" customHeight="1">
-      <c r="A55" s="34">
+      <c r="A55" s="35">
         <v>53</v>
       </c>
       <c r="B55" s="20">
@@ -4866,23 +4869,23 @@
         <v>15</v>
       </c>
       <c r="J55" s="26">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K55" s="20">
         <f>VLOOKUP(J55,A$3:B$66,2)</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L55" s="27">
         <f>K55</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M55" s="28">
         <f>L55+32</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N55" s="29">
         <f>L55+64</f>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O55" s="18"/>
       <c r="P55" s="12"/>
@@ -4921,23 +4924,23 @@
         <v>15</v>
       </c>
       <c r="J56" s="26">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K56" s="20">
         <f>VLOOKUP(J56,A$3:B$66,2)</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L56" s="27">
         <f>K56</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M56" s="28">
         <f>L56+32</f>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="N56" s="29">
         <f>L56+64</f>
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="O56" s="18"/>
       <c r="P56" s="12"/>
@@ -4976,23 +4979,23 @@
         <v>15</v>
       </c>
       <c r="J57" s="26">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K57" s="20">
         <f>VLOOKUP(J57,A$3:B$66,2)</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="L57" s="27">
         <f>K57</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="M57" s="28">
         <f>L57+32</f>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="N57" s="29">
         <f>L57+64</f>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="O57" s="18"/>
       <c r="P57" s="12"/>
@@ -5031,23 +5034,23 @@
         <v>15</v>
       </c>
       <c r="J58" s="26">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="K58" s="20">
         <f>VLOOKUP(J58,A$3:B$66,2)</f>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L58" s="27">
         <f>K58</f>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M58" s="28">
         <f>L58+32</f>
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="N58" s="29">
         <f>L58+64</f>
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O58" s="18"/>
       <c r="P58" s="12"/>
@@ -5086,23 +5089,23 @@
         <v>15</v>
       </c>
       <c r="J59" s="26">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K59" s="20">
         <f>VLOOKUP(J59,A$3:B$66,2)</f>
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="L59" s="27">
         <f>K59</f>
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M59" s="28">
         <f>L59+32</f>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="N59" s="29">
         <f>L59+64</f>
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="O59" s="18"/>
       <c r="P59" s="12"/>
@@ -5141,23 +5144,23 @@
         <v>15</v>
       </c>
       <c r="J60" s="26">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="K60" s="20">
         <f>VLOOKUP(J60,A$3:B$66,2)</f>
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="L60" s="27">
         <f>K60</f>
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="M60" s="28">
         <f>L60+32</f>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="N60" s="29">
         <f>L60+64</f>
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="O60" s="18"/>
       <c r="P60" s="12"/>
@@ -5196,23 +5199,23 @@
         <v>15</v>
       </c>
       <c r="J61" s="26">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="K61" s="20">
         <f>VLOOKUP(J61,A$3:B$66,2)</f>
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="L61" s="27">
         <f>K61</f>
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M61" s="28">
         <f>L61+32</f>
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="N61" s="29">
         <f>L61+64</f>
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="O61" s="18"/>
       <c r="P61" s="12"/>
@@ -5251,23 +5254,23 @@
         <v>15</v>
       </c>
       <c r="J62" s="26">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K62" s="20">
         <f>VLOOKUP(J62,A$3:B$66,2)</f>
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L62" s="27">
         <f>K62</f>
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M62" s="28">
         <f>L62+32</f>
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="N62" s="29">
         <f>L62+64</f>
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="O62" s="18"/>
       <c r="P62" s="12"/>
@@ -5306,23 +5309,23 @@
         <v>15</v>
       </c>
       <c r="J63" s="26">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K63" s="20">
         <f>VLOOKUP(J63,A$3:B$66,2)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L63" s="27">
         <f>K63</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M63" s="28">
         <f>L63+32</f>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N63" s="29">
         <f>L63+64</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="O63" s="18"/>
       <c r="P63" s="12"/>
@@ -5361,23 +5364,23 @@
         <v>15</v>
       </c>
       <c r="J64" s="26">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K64" s="20">
         <f>VLOOKUP(J64,A$3:B$66,2)</f>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L64" s="27">
         <f>K64</f>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M64" s="28">
         <f>L64+32</f>
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N64" s="29">
         <f>L64+64</f>
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O64" s="18"/>
       <c r="P64" s="12"/>
@@ -5405,7 +5408,7 @@
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="23">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G65" s="24">
         <f>G64-23</f>
@@ -5416,23 +5419,23 @@
         <v>15</v>
       </c>
       <c r="J65" s="26">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="K65" s="20">
         <f>VLOOKUP(J65,A$3:B$66,2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L65" s="27">
         <f>K65</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M65" s="28">
         <f>L65+32</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N65" s="29">
         <f>L65+64</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O65" s="18"/>
       <c r="P65" s="12"/>
@@ -5460,7 +5463,7 @@
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G66" s="24">
         <f>G65-23</f>
@@ -5471,23 +5474,23 @@
         <v>15</v>
       </c>
       <c r="J66" s="26">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K66" s="20">
         <f>VLOOKUP(J66,A$3:B$66,2)</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="L66" s="27">
         <f>K66</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M66" s="28">
         <f>L66+32</f>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="N66" s="29">
         <f>L66+64</f>
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="O66" s="18"/>
       <c r="P66" s="12"/>
@@ -5499,21 +5502,21 @@
       <c r="V66" s="4"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
@@ -5523,832 +5526,832 @@
       <c r="V67" s="4"/>
     </row>
     <row r="68" ht="60" customHeight="1">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" t="s" s="38">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" t="s" s="39">
         <v>16</v>
       </c>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
     </row>
     <row r="69" ht="105" customHeight="1">
-      <c r="A69" t="s" s="41">
+      <c r="A69" t="s" s="42">
         <v>17</v>
       </c>
-      <c r="B69" t="s" s="42">
+      <c r="B69" t="s" s="43">
         <v>18</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="43"/>
-      <c r="H69" t="s" s="42">
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="44"/>
+      <c r="H69" t="s" s="43">
         <v>19</v>
       </c>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="45"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
     </row>
     <row r="70" ht="145.5" customHeight="1">
-      <c r="A70" t="s" s="46">
+      <c r="A70" t="s" s="47">
         <v>20</v>
       </c>
-      <c r="B70" t="s" s="47">
+      <c r="B70" t="s" s="48">
         <v>21</v>
       </c>
-      <c r="C70" s="48"/>
-      <c r="D70" t="s" s="47">
+      <c r="C70" s="49"/>
+      <c r="D70" t="s" s="48">
         <v>22</v>
       </c>
-      <c r="E70" t="s" s="49">
+      <c r="E70" t="s" s="50">
         <v>23</v>
       </c>
-      <c r="F70" s="50"/>
-      <c r="G70" t="s" s="49">
+      <c r="F70" s="51"/>
+      <c r="G70" t="s" s="50">
         <v>23</v>
       </c>
-      <c r="H70" t="s" s="51">
+      <c r="H70" t="s" s="52">
         <v>24</v>
       </c>
-      <c r="I70" t="s" s="52">
+      <c r="I70" t="s" s="53">
         <v>25</v>
       </c>
-      <c r="J70" s="43"/>
+      <c r="J70" s="44"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" t="s" s="46">
+      <c r="A71" t="s" s="47">
         <v>26</v>
       </c>
-      <c r="B71" t="s" s="47">
+      <c r="B71" t="s" s="48">
         <v>27</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" t="s" s="47">
+      <c r="C71" s="49"/>
+      <c r="D71" t="s" s="48">
         <v>28</v>
       </c>
-      <c r="E71" t="s" s="49">
+      <c r="E71" t="s" s="50">
         <v>29</v>
       </c>
-      <c r="F71" s="50"/>
-      <c r="G71" t="s" s="49">
+      <c r="F71" s="51"/>
+      <c r="G71" t="s" s="50">
         <v>26</v>
       </c>
-      <c r="H71" t="s" s="51">
+      <c r="H71" t="s" s="52">
         <v>27</v>
       </c>
-      <c r="I71" t="s" s="51">
+      <c r="I71" t="s" s="52">
         <v>28</v>
       </c>
-      <c r="J71" t="s" s="49">
+      <c r="J71" t="s" s="50">
         <v>29</v>
       </c>
       <c r="K71" s="12"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="54">
+      <c r="A72" s="55">
         <v>46</v>
       </c>
-      <c r="B72" s="55">
+      <c r="B72" s="56">
         <v>28</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="55">
+      <c r="C72" s="49"/>
+      <c r="D72" s="56">
         <v>29</v>
       </c>
-      <c r="E72" s="56">
+      <c r="E72" s="57">
         <v>47</v>
       </c>
-      <c r="F72" s="50"/>
-      <c r="G72" s="56">
+      <c r="F72" s="51"/>
+      <c r="G72" s="57">
         <v>49</v>
       </c>
-      <c r="H72" s="57">
+      <c r="H72" s="58">
         <v>1</v>
       </c>
-      <c r="I72" s="57">
+      <c r="I72" s="58">
         <v>2</v>
       </c>
-      <c r="J72" s="56">
+      <c r="J72" s="57">
         <v>48</v>
       </c>
       <c r="K72" s="12"/>
       <c r="L72" s="31"/>
-      <c r="M72" s="58"/>
-      <c r="N72" s="58"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="58"/>
-      <c r="Q72" s="58"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="58"/>
-      <c r="T72" s="58"/>
-      <c r="U72" s="58"/>
-      <c r="V72" s="58"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="54">
+      <c r="A73" s="55">
         <v>44</v>
       </c>
-      <c r="B73" s="55">
+      <c r="B73" s="56">
         <v>26</v>
       </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="55">
+      <c r="C73" s="49"/>
+      <c r="D73" s="56">
         <v>27</v>
       </c>
-      <c r="E73" s="56">
+      <c r="E73" s="57">
         <v>45</v>
       </c>
-      <c r="F73" s="50"/>
-      <c r="G73" s="56">
+      <c r="F73" s="51"/>
+      <c r="G73" s="57">
         <v>51</v>
       </c>
-      <c r="H73" s="57">
+      <c r="H73" s="58">
         <v>3</v>
       </c>
-      <c r="I73" s="57">
+      <c r="I73" s="58">
         <v>4</v>
       </c>
-      <c r="J73" s="56">
+      <c r="J73" s="57">
         <v>50</v>
       </c>
       <c r="K73" s="12"/>
       <c r="L73" s="31"/>
-      <c r="M73" s="58"/>
-      <c r="N73" s="58"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="58"/>
-      <c r="Q73" s="58"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="58"/>
-      <c r="T73" s="58"/>
-      <c r="U73" s="58"/>
-      <c r="V73" s="58"/>
+      <c r="M73" s="59"/>
+      <c r="N73" s="59"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="59"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="59"/>
+      <c r="T73" s="59"/>
+      <c r="U73" s="59"/>
+      <c r="V73" s="59"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="54">
+      <c r="A74" s="55">
         <v>42</v>
       </c>
-      <c r="B74" s="55">
+      <c r="B74" s="56">
         <v>25</v>
       </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="55">
+      <c r="C74" s="49"/>
+      <c r="D74" s="56">
         <v>30</v>
       </c>
-      <c r="E74" s="56">
+      <c r="E74" s="57">
         <v>43</v>
       </c>
-      <c r="F74" s="50"/>
-      <c r="G74" s="56">
+      <c r="F74" s="51"/>
+      <c r="G74" s="57">
         <v>53</v>
       </c>
-      <c r="H74" s="57">
+      <c r="H74" s="58">
         <v>5</v>
       </c>
-      <c r="I74" s="57">
+      <c r="I74" s="58">
         <v>6</v>
       </c>
-      <c r="J74" s="56">
+      <c r="J74" s="57">
         <v>52</v>
       </c>
       <c r="K74" s="12"/>
       <c r="L74" s="31"/>
-      <c r="M74" s="58"/>
-      <c r="N74" s="58"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="58"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="58"/>
-      <c r="T74" s="58"/>
-      <c r="U74" s="58"/>
-      <c r="V74" s="58"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="59"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="59"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="59"/>
+      <c r="T74" s="59"/>
+      <c r="U74" s="59"/>
+      <c r="V74" s="59"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="54">
+      <c r="A75" s="55">
         <v>40</v>
       </c>
-      <c r="B75" s="55">
+      <c r="B75" s="56">
         <v>23</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="55">
+      <c r="C75" s="49"/>
+      <c r="D75" s="56">
         <v>24</v>
       </c>
-      <c r="E75" s="56">
+      <c r="E75" s="57">
         <v>41</v>
       </c>
-      <c r="F75" s="50"/>
-      <c r="G75" s="56">
+      <c r="F75" s="51"/>
+      <c r="G75" s="57">
         <v>55</v>
       </c>
-      <c r="H75" s="57">
+      <c r="H75" s="58">
         <v>7</v>
       </c>
-      <c r="I75" s="57">
+      <c r="I75" s="58">
         <v>8</v>
       </c>
-      <c r="J75" s="56">
+      <c r="J75" s="57">
         <v>54</v>
       </c>
       <c r="K75" s="12"/>
       <c r="L75" s="31"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="58"/>
-      <c r="Q75" s="58"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="58"/>
-      <c r="T75" s="58"/>
-      <c r="U75" s="58"/>
-      <c r="V75" s="58"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="59"/>
+      <c r="T75" s="59"/>
+      <c r="U75" s="59"/>
+      <c r="V75" s="59"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="54">
+      <c r="A76" s="55">
         <v>38</v>
       </c>
-      <c r="B76" s="55">
+      <c r="B76" s="56">
         <v>22</v>
       </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="55">
+      <c r="C76" s="49"/>
+      <c r="D76" s="56">
         <v>31</v>
       </c>
-      <c r="E76" s="56">
+      <c r="E76" s="57">
         <v>39</v>
       </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="56">
+      <c r="F76" s="51"/>
+      <c r="G76" s="57">
         <v>57</v>
       </c>
-      <c r="H76" s="57">
+      <c r="H76" s="58">
         <v>9</v>
       </c>
-      <c r="I76" s="57">
+      <c r="I76" s="58">
         <v>10</v>
       </c>
-      <c r="J76" s="56">
+      <c r="J76" s="57">
         <v>56</v>
       </c>
       <c r="K76" s="12"/>
       <c r="L76" s="31"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="58"/>
-      <c r="Q76" s="58"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="58"/>
-      <c r="T76" s="58"/>
-      <c r="U76" s="58"/>
-      <c r="V76" s="58"/>
+      <c r="M76" s="59"/>
+      <c r="N76" s="59"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="59"/>
+      <c r="Q76" s="59"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="59"/>
+      <c r="T76" s="59"/>
+      <c r="U76" s="59"/>
+      <c r="V76" s="59"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="54">
+      <c r="A77" s="55">
         <v>36</v>
       </c>
-      <c r="B77" s="55">
+      <c r="B77" s="56">
         <v>20</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="55">
+      <c r="C77" s="49"/>
+      <c r="D77" s="56">
         <v>21</v>
       </c>
-      <c r="E77" s="56">
+      <c r="E77" s="57">
         <v>37</v>
       </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="56">
+      <c r="F77" s="51"/>
+      <c r="G77" s="57">
         <v>59</v>
       </c>
-      <c r="H77" s="57">
+      <c r="H77" s="58">
         <v>11</v>
       </c>
-      <c r="I77" s="57">
+      <c r="I77" s="58">
         <v>12</v>
       </c>
-      <c r="J77" s="56">
+      <c r="J77" s="57">
         <v>58</v>
       </c>
       <c r="K77" s="12"/>
       <c r="L77" s="31"/>
-      <c r="M77" s="58"/>
-      <c r="N77" s="58"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="58"/>
-      <c r="Q77" s="58"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="58"/>
-      <c r="T77" s="58"/>
-      <c r="U77" s="58"/>
-      <c r="V77" s="58"/>
+      <c r="M77" s="59"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="59"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="59"/>
+      <c r="T77" s="59"/>
+      <c r="U77" s="59"/>
+      <c r="V77" s="59"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="54">
+      <c r="A78" s="55">
         <v>34</v>
       </c>
-      <c r="B78" s="55">
+      <c r="B78" s="56">
         <v>19</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="55">
+      <c r="C78" s="49"/>
+      <c r="D78" s="56">
         <v>32</v>
       </c>
-      <c r="E78" s="56">
+      <c r="E78" s="57">
         <v>35</v>
       </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="56">
+      <c r="F78" s="51"/>
+      <c r="G78" s="57">
         <v>61</v>
       </c>
-      <c r="H78" s="57">
+      <c r="H78" s="58">
         <v>13</v>
       </c>
-      <c r="I78" s="57">
+      <c r="I78" s="58">
         <v>14</v>
       </c>
-      <c r="J78" s="56">
+      <c r="J78" s="57">
         <v>60</v>
       </c>
       <c r="K78" s="12"/>
       <c r="L78" s="31"/>
-      <c r="M78" s="58"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="58"/>
-      <c r="Q78" s="58"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="58"/>
-      <c r="T78" s="58"/>
-      <c r="U78" s="58"/>
-      <c r="V78" s="58"/>
+      <c r="M78" s="59"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="59"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="59"/>
+      <c r="T78" s="59"/>
+      <c r="U78" s="59"/>
+      <c r="V78" s="59"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="54">
+      <c r="A79" s="55">
         <v>32</v>
       </c>
-      <c r="B79" s="55">
+      <c r="B79" s="56">
         <v>17</v>
       </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="55">
+      <c r="C79" s="49"/>
+      <c r="D79" s="56">
         <v>18</v>
       </c>
-      <c r="E79" s="56">
+      <c r="E79" s="57">
         <v>33</v>
       </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="56">
+      <c r="F79" s="51"/>
+      <c r="G79" s="57">
         <v>63</v>
       </c>
-      <c r="H79" s="57">
-        <v>15</v>
-      </c>
-      <c r="I79" s="57">
+      <c r="H79" s="58">
+        <v>15</v>
+      </c>
+      <c r="I79" s="58">
         <v>16</v>
       </c>
-      <c r="J79" s="56">
+      <c r="J79" s="57">
         <v>62</v>
       </c>
       <c r="K79" s="12"/>
       <c r="L79" s="31"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="58"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="58"/>
-      <c r="Q79" s="58"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="58"/>
-      <c r="T79" s="58"/>
-      <c r="U79" s="58"/>
-      <c r="V79" s="58"/>
+      <c r="M79" s="59"/>
+      <c r="N79" s="59"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="59"/>
+      <c r="T79" s="59"/>
+      <c r="U79" s="59"/>
+      <c r="V79" s="59"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="54">
+      <c r="A80" s="55">
         <v>30</v>
       </c>
-      <c r="B80" s="55">
+      <c r="B80" s="56">
         <v>48</v>
       </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="55">
+      <c r="C80" s="49"/>
+      <c r="D80" s="56">
         <v>47</v>
       </c>
-      <c r="E80" s="56">
+      <c r="E80" s="57">
         <v>31</v>
       </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="56">
+      <c r="F80" s="51"/>
+      <c r="G80" s="57">
         <v>1</v>
       </c>
-      <c r="H80" s="57">
+      <c r="H80" s="58">
         <v>50</v>
       </c>
-      <c r="I80" s="57">
+      <c r="I80" s="58">
         <v>49</v>
       </c>
-      <c r="J80" s="56">
+      <c r="J80" s="57">
         <v>0</v>
       </c>
       <c r="K80" s="12"/>
       <c r="L80" s="31"/>
-      <c r="M80" s="58"/>
-      <c r="N80" s="58"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="58"/>
-      <c r="Q80" s="58"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="58"/>
-      <c r="T80" s="58"/>
-      <c r="U80" s="58"/>
-      <c r="V80" s="58"/>
+      <c r="M80" s="59"/>
+      <c r="N80" s="59"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="59"/>
+      <c r="T80" s="59"/>
+      <c r="U80" s="59"/>
+      <c r="V80" s="59"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="54">
+      <c r="A81" s="55">
         <v>28</v>
       </c>
-      <c r="B81" s="55">
+      <c r="B81" s="56">
         <v>46</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="55">
+      <c r="C81" s="49"/>
+      <c r="D81" s="56">
         <v>33</v>
       </c>
-      <c r="E81" s="56">
+      <c r="E81" s="57">
         <v>29</v>
       </c>
-      <c r="F81" s="50"/>
-      <c r="G81" s="56">
+      <c r="F81" s="51"/>
+      <c r="G81" s="57">
         <v>3</v>
       </c>
-      <c r="H81" s="57">
+      <c r="H81" s="58">
         <v>52</v>
       </c>
-      <c r="I81" s="57">
+      <c r="I81" s="58">
         <v>51</v>
       </c>
-      <c r="J81" s="56">
+      <c r="J81" s="57">
         <v>2</v>
       </c>
       <c r="K81" s="12"/>
       <c r="L81" s="31"/>
-      <c r="M81" s="58"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="58"/>
-      <c r="Q81" s="58"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="58"/>
-      <c r="T81" s="58"/>
-      <c r="U81" s="58"/>
-      <c r="V81" s="58"/>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="59"/>
+      <c r="T81" s="59"/>
+      <c r="U81" s="59"/>
+      <c r="V81" s="59"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="54">
+      <c r="A82" s="55">
         <v>26</v>
       </c>
-      <c r="B82" s="55">
+      <c r="B82" s="56">
         <v>45</v>
       </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="55">
+      <c r="C82" s="49"/>
+      <c r="D82" s="56">
         <v>44</v>
       </c>
-      <c r="E82" s="56">
+      <c r="E82" s="57">
         <v>27</v>
       </c>
-      <c r="F82" s="50"/>
-      <c r="G82" s="56">
+      <c r="F82" s="51"/>
+      <c r="G82" s="57">
         <v>5</v>
       </c>
-      <c r="H82" s="57">
+      <c r="H82" s="58">
         <v>54</v>
       </c>
-      <c r="I82" s="57">
+      <c r="I82" s="58">
         <v>53</v>
       </c>
-      <c r="J82" s="56">
+      <c r="J82" s="57">
         <v>4</v>
       </c>
       <c r="K82" s="12"/>
       <c r="L82" s="31"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="58"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="58"/>
-      <c r="T82" s="58"/>
-      <c r="U82" s="58"/>
-      <c r="V82" s="58"/>
+      <c r="M82" s="59"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="59"/>
+      <c r="T82" s="59"/>
+      <c r="U82" s="59"/>
+      <c r="V82" s="59"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="54">
+      <c r="A83" s="55">
         <v>24</v>
       </c>
-      <c r="B83" s="55">
+      <c r="B83" s="56">
         <v>43</v>
       </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="55">
+      <c r="C83" s="49"/>
+      <c r="D83" s="56">
         <v>34</v>
       </c>
-      <c r="E83" s="56">
+      <c r="E83" s="57">
         <v>25</v>
       </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="56">
+      <c r="F83" s="51"/>
+      <c r="G83" s="57">
         <v>7</v>
       </c>
-      <c r="H83" s="57">
+      <c r="H83" s="58">
         <v>56</v>
       </c>
-      <c r="I83" s="57">
+      <c r="I83" s="58">
         <v>55</v>
       </c>
-      <c r="J83" s="56">
+      <c r="J83" s="57">
         <v>6</v>
       </c>
       <c r="K83" s="12"/>
       <c r="L83" s="31"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="58"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="58"/>
-      <c r="Q83" s="58"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="58"/>
-      <c r="T83" s="58"/>
-      <c r="U83" s="58"/>
-      <c r="V83" s="58"/>
+      <c r="M83" s="59"/>
+      <c r="N83" s="59"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="59"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="59"/>
+      <c r="T83" s="59"/>
+      <c r="U83" s="59"/>
+      <c r="V83" s="59"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="54">
+      <c r="A84" s="55">
         <v>22</v>
       </c>
-      <c r="B84" s="55">
+      <c r="B84" s="56">
         <v>42</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="55">
+      <c r="C84" s="49"/>
+      <c r="D84" s="56">
         <v>41</v>
       </c>
-      <c r="E84" s="56">
+      <c r="E84" s="57">
         <v>23</v>
       </c>
-      <c r="F84" s="50"/>
-      <c r="G84" s="56">
+      <c r="F84" s="51"/>
+      <c r="G84" s="57">
         <v>9</v>
       </c>
-      <c r="H84" s="57">
+      <c r="H84" s="58">
         <v>58</v>
       </c>
-      <c r="I84" s="57">
+      <c r="I84" s="58">
         <v>57</v>
       </c>
-      <c r="J84" s="56">
+      <c r="J84" s="57">
         <v>8</v>
       </c>
       <c r="K84" s="12"/>
       <c r="L84" s="31"/>
-      <c r="M84" s="58"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="58"/>
-      <c r="Q84" s="58"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="58"/>
-      <c r="T84" s="58"/>
-      <c r="U84" s="58"/>
-      <c r="V84" s="58"/>
+      <c r="M84" s="59"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="59"/>
+      <c r="V84" s="59"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="54">
+      <c r="A85" s="55">
         <v>20</v>
       </c>
-      <c r="B85" s="55">
+      <c r="B85" s="56">
         <v>40</v>
       </c>
-      <c r="C85" s="48"/>
-      <c r="D85" s="55">
+      <c r="C85" s="49"/>
+      <c r="D85" s="56">
         <v>35</v>
       </c>
-      <c r="E85" s="56">
+      <c r="E85" s="57">
         <v>21</v>
       </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="56">
+      <c r="F85" s="51"/>
+      <c r="G85" s="57">
         <v>11</v>
       </c>
-      <c r="H85" s="57">
+      <c r="H85" s="58">
         <v>60</v>
       </c>
-      <c r="I85" s="57">
+      <c r="I85" s="58">
         <v>59</v>
       </c>
-      <c r="J85" s="56">
+      <c r="J85" s="57">
         <v>10</v>
       </c>
       <c r="K85" s="12"/>
       <c r="L85" s="31"/>
-      <c r="M85" s="58"/>
-      <c r="N85" s="58"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="58"/>
-      <c r="Q85" s="58"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="58"/>
-      <c r="T85" s="58"/>
-      <c r="U85" s="58"/>
-      <c r="V85" s="58"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="59"/>
+      <c r="U85" s="59"/>
+      <c r="V85" s="59"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="54">
+      <c r="A86" s="55">
         <v>18</v>
       </c>
-      <c r="B86" s="55">
+      <c r="B86" s="56">
         <v>39</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="55">
+      <c r="C86" s="49"/>
+      <c r="D86" s="56">
         <v>38</v>
       </c>
-      <c r="E86" s="56">
+      <c r="E86" s="57">
         <v>19</v>
       </c>
-      <c r="F86" s="50"/>
-      <c r="G86" s="56">
+      <c r="F86" s="51"/>
+      <c r="G86" s="57">
         <v>13</v>
       </c>
-      <c r="H86" s="57">
+      <c r="H86" s="58">
         <v>62</v>
       </c>
-      <c r="I86" s="57">
+      <c r="I86" s="58">
         <v>61</v>
       </c>
-      <c r="J86" s="56">
+      <c r="J86" s="57">
         <v>12</v>
       </c>
       <c r="K86" s="12"/>
       <c r="L86" s="31"/>
-      <c r="M86" s="58"/>
-      <c r="N86" s="58"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="58"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="58"/>
-      <c r="T86" s="58"/>
-      <c r="U86" s="58"/>
-      <c r="V86" s="58"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="38"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="54">
+      <c r="A87" s="55">
         <v>16</v>
       </c>
-      <c r="B87" s="55">
+      <c r="B87" s="56">
         <v>37</v>
       </c>
-      <c r="C87" s="48"/>
-      <c r="D87" s="55">
+      <c r="C87" s="49"/>
+      <c r="D87" s="56">
         <v>36</v>
       </c>
-      <c r="E87" s="56">
+      <c r="E87" s="57">
         <v>17</v>
       </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="56">
-        <v>15</v>
-      </c>
-      <c r="H87" s="57">
+      <c r="F87" s="51"/>
+      <c r="G87" s="57">
+        <v>15</v>
+      </c>
+      <c r="H87" s="58">
         <v>64</v>
       </c>
-      <c r="I87" s="57">
+      <c r="I87" s="58">
         <v>63</v>
       </c>
-      <c r="J87" s="56">
+      <c r="J87" s="57">
         <v>14</v>
       </c>
       <c r="K87" s="12"/>
       <c r="L87" s="31"/>
-      <c r="M87" s="58"/>
-      <c r="N87" s="58"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="58"/>
-      <c r="Q87" s="58"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="58"/>
-      <c r="T87" s="58"/>
-      <c r="U87" s="58"/>
-      <c r="V87" s="58"/>
+      <c r="M87" s="59"/>
+      <c r="N87" s="59"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="38"/>
+      <c r="S87" s="59"/>
+      <c r="T87" s="59"/>
+      <c r="U87" s="59"/>
+      <c r="V87" s="59"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" t="s" s="46">
+      <c r="A88" t="s" s="47">
         <v>29</v>
       </c>
-      <c r="B88" t="s" s="47">
+      <c r="B88" t="s" s="48">
         <v>28</v>
       </c>
-      <c r="C88" s="48"/>
-      <c r="D88" t="s" s="47">
+      <c r="C88" s="49"/>
+      <c r="D88" t="s" s="48">
         <v>30</v>
       </c>
-      <c r="E88" t="s" s="49">
+      <c r="E88" t="s" s="50">
         <v>26</v>
       </c>
-      <c r="F88" s="50"/>
-      <c r="G88" t="s" s="49">
+      <c r="F88" s="51"/>
+      <c r="G88" t="s" s="50">
         <v>29</v>
       </c>
-      <c r="H88" t="s" s="51">
+      <c r="H88" t="s" s="52">
         <v>28</v>
       </c>
-      <c r="I88" t="s" s="51">
+      <c r="I88" t="s" s="52">
         <v>30</v>
       </c>
-      <c r="J88" t="s" s="49">
+      <c r="J88" t="s" s="50">
         <v>26</v>
       </c>
       <c r="K88" s="12"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" t="s" s="59">
+      <c r="A89" t="s" s="60">
         <v>31</v>
       </c>
-      <c r="B89" s="60"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
       <c r="K89" s="4"/>
       <c r="L89" s="31"/>
       <c r="M89" s="31"/>
@@ -6363,64 +6366,64 @@
       <c r="V89" s="4"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
       <c r="L90" s="4"/>
       <c r="M90" s="31"/>
       <c r="N90" s="31"/>
       <c r="O90" s="4"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="40"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" t="s" s="61">
+      <c r="A91" t="s" s="62">
         <v>32</v>
       </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
       <c r="L91" s="4"/>
       <c r="M91" s="31"/>
       <c r="N91" s="31"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="44"/>
-      <c r="T91" s="44"/>
+      <c r="P91" s="45"/>
+      <c r="Q91" s="45"/>
+      <c r="R91" s="45"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="45"/>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
     </row>
     <row r="92" ht="28.5" customHeight="1">
-      <c r="A92" t="s" s="63">
+      <c r="A92" t="s" s="64">
         <v>33</v>
       </c>
-      <c r="B92" t="s" s="64">
+      <c r="B92" t="s" s="65">
         <v>34</v>
       </c>
-      <c r="C92" s="65"/>
-      <c r="D92" t="s" s="66">
+      <c r="C92" s="66"/>
+      <c r="D92" t="s" s="67">
         <f>B92</f>
         <v>35</v>
       </c>
@@ -6446,16 +6449,16 @@
       <c r="V92" s="4"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="67">
+      <c r="A93" s="68">
         <f>A72</f>
         <v>46</v>
       </c>
-      <c r="B93" s="68">
+      <c r="B93" s="69">
         <f>B72</f>
         <v>28</v>
       </c>
-      <c r="C93" s="65"/>
-      <c r="D93" s="69">
+      <c r="C93" s="66"/>
+      <c r="D93" s="70">
         <f>B93</f>
         <v>28</v>
       </c>
@@ -6482,16 +6485,16 @@
       <c r="V93" s="4"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="70">
+      <c r="A94" s="71">
         <f>A73</f>
         <v>44</v>
       </c>
-      <c r="B94" s="71">
+      <c r="B94" s="72">
         <f>B73</f>
         <v>26</v>
       </c>
-      <c r="C94" s="65"/>
-      <c r="D94" s="72">
+      <c r="C94" s="66"/>
+      <c r="D94" s="73">
         <f>B94</f>
         <v>26</v>
       </c>
@@ -6518,16 +6521,16 @@
       <c r="V94" s="4"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="73">
+      <c r="A95" s="74">
         <f>A74</f>
         <v>42</v>
       </c>
-      <c r="B95" s="74">
+      <c r="B95" s="75">
         <f>B74</f>
         <v>25</v>
       </c>
-      <c r="C95" s="65"/>
-      <c r="D95" s="72">
+      <c r="C95" s="66"/>
+      <c r="D95" s="73">
         <f>B95</f>
         <v>25</v>
       </c>
@@ -6554,16 +6557,16 @@
       <c r="V95" s="4"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="73">
+      <c r="A96" s="74">
         <f>A75</f>
         <v>40</v>
       </c>
-      <c r="B96" s="74">
+      <c r="B96" s="75">
         <f>B75</f>
         <v>23</v>
       </c>
-      <c r="C96" s="65"/>
-      <c r="D96" s="72">
+      <c r="C96" s="66"/>
+      <c r="D96" s="73">
         <f>B96</f>
         <v>23</v>
       </c>
@@ -6590,16 +6593,16 @@
       <c r="V96" s="4"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="73">
+      <c r="A97" s="74">
         <f>A76</f>
         <v>38</v>
       </c>
-      <c r="B97" s="74">
+      <c r="B97" s="75">
         <f>B76</f>
         <v>22</v>
       </c>
-      <c r="C97" s="65"/>
-      <c r="D97" s="72">
+      <c r="C97" s="66"/>
+      <c r="D97" s="73">
         <f>B97</f>
         <v>22</v>
       </c>
@@ -6626,16 +6629,16 @@
       <c r="V97" s="4"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="73">
+      <c r="A98" s="74">
         <f>A77</f>
         <v>36</v>
       </c>
-      <c r="B98" s="74">
+      <c r="B98" s="75">
         <f>B77</f>
         <v>20</v>
       </c>
-      <c r="C98" s="65"/>
-      <c r="D98" s="72">
+      <c r="C98" s="66"/>
+      <c r="D98" s="73">
         <f>B98</f>
         <v>20</v>
       </c>
@@ -6662,16 +6665,16 @@
       <c r="V98" s="4"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="73">
+      <c r="A99" s="74">
         <f>A78</f>
         <v>34</v>
       </c>
-      <c r="B99" s="74">
+      <c r="B99" s="75">
         <f>B78</f>
         <v>19</v>
       </c>
-      <c r="C99" s="65"/>
-      <c r="D99" s="72">
+      <c r="C99" s="66"/>
+      <c r="D99" s="73">
         <f>B99</f>
         <v>19</v>
       </c>
@@ -6698,16 +6701,16 @@
       <c r="V99" s="4"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="73">
+      <c r="A100" s="74">
         <f>A79</f>
         <v>32</v>
       </c>
-      <c r="B100" s="74">
+      <c r="B100" s="75">
         <f>B79</f>
         <v>17</v>
       </c>
-      <c r="C100" s="65"/>
-      <c r="D100" s="72">
+      <c r="C100" s="66"/>
+      <c r="D100" s="73">
         <f>B100</f>
         <v>17</v>
       </c>
@@ -6734,16 +6737,16 @@
       <c r="V100" s="4"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="73">
+      <c r="A101" s="74">
         <f>A80</f>
         <v>30</v>
       </c>
-      <c r="B101" s="74">
+      <c r="B101" s="75">
         <f>B80</f>
         <v>48</v>
       </c>
-      <c r="C101" s="65"/>
-      <c r="D101" s="72">
+      <c r="C101" s="66"/>
+      <c r="D101" s="73">
         <f>B101</f>
         <v>48</v>
       </c>
@@ -6770,16 +6773,16 @@
       <c r="V101" s="4"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="73">
+      <c r="A102" s="74">
         <f>A81</f>
         <v>28</v>
       </c>
-      <c r="B102" s="74">
+      <c r="B102" s="75">
         <f>B81</f>
         <v>46</v>
       </c>
-      <c r="C102" s="65"/>
-      <c r="D102" s="72">
+      <c r="C102" s="66"/>
+      <c r="D102" s="73">
         <f>B102</f>
         <v>46</v>
       </c>
@@ -6806,16 +6809,16 @@
       <c r="V102" s="4"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="73">
+      <c r="A103" s="74">
         <f>A82</f>
         <v>26</v>
       </c>
-      <c r="B103" s="74">
+      <c r="B103" s="75">
         <f>B82</f>
         <v>45</v>
       </c>
-      <c r="C103" s="65"/>
-      <c r="D103" s="72">
+      <c r="C103" s="66"/>
+      <c r="D103" s="73">
         <f>B103</f>
         <v>45</v>
       </c>
@@ -6842,16 +6845,16 @@
       <c r="V103" s="4"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="73">
+      <c r="A104" s="74">
         <f>A83</f>
         <v>24</v>
       </c>
-      <c r="B104" s="74">
+      <c r="B104" s="75">
         <f>B83</f>
         <v>43</v>
       </c>
-      <c r="C104" s="65"/>
-      <c r="D104" s="72">
+      <c r="C104" s="66"/>
+      <c r="D104" s="73">
         <f>B104</f>
         <v>43</v>
       </c>
@@ -6878,16 +6881,16 @@
       <c r="V104" s="4"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="67">
+      <c r="A105" s="68">
         <f>A84</f>
         <v>22</v>
       </c>
-      <c r="B105" s="75">
+      <c r="B105" s="76">
         <f>B84</f>
         <v>42</v>
       </c>
-      <c r="C105" s="65"/>
-      <c r="D105" s="72">
+      <c r="C105" s="66"/>
+      <c r="D105" s="73">
         <f>B105</f>
         <v>42</v>
       </c>
@@ -6901,10 +6904,10 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="53"/>
+      <c r="L105" s="54"/>
       <c r="M105" s="4"/>
-      <c r="N105" s="53"/>
-      <c r="O105" s="53"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="54"/>
       <c r="P105" s="4"/>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
@@ -6914,16 +6917,16 @@
       <c r="V105" s="4"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="76">
+      <c r="A106" s="77">
         <f>A85</f>
         <v>20</v>
       </c>
-      <c r="B106" s="68">
+      <c r="B106" s="69">
         <f>B85</f>
         <v>40</v>
       </c>
-      <c r="C106" s="65"/>
-      <c r="D106" s="72">
+      <c r="C106" s="66"/>
+      <c r="D106" s="73">
         <f>B106</f>
         <v>40</v>
       </c>
@@ -6937,10 +6940,10 @@
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="53"/>
+      <c r="L106" s="54"/>
       <c r="M106" s="4"/>
-      <c r="N106" s="53"/>
-      <c r="O106" s="53"/>
+      <c r="N106" s="54"/>
+      <c r="O106" s="54"/>
       <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
@@ -6950,16 +6953,16 @@
       <c r="V106" s="4"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="70">
+      <c r="A107" s="71">
         <f>A86</f>
         <v>18</v>
       </c>
-      <c r="B107" s="71">
+      <c r="B107" s="72">
         <f>B86</f>
         <v>39</v>
       </c>
-      <c r="C107" s="65"/>
-      <c r="D107" s="72">
+      <c r="C107" s="66"/>
+      <c r="D107" s="73">
         <f>B107</f>
         <v>39</v>
       </c>
@@ -6973,10 +6976,10 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="53"/>
+      <c r="L107" s="54"/>
       <c r="M107" s="4"/>
-      <c r="N107" s="53"/>
-      <c r="O107" s="53"/>
+      <c r="N107" s="54"/>
+      <c r="O107" s="54"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
@@ -6986,16 +6989,16 @@
       <c r="V107" s="4"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="67">
+      <c r="A108" s="68">
         <f>A87</f>
         <v>16</v>
       </c>
-      <c r="B108" s="75">
+      <c r="B108" s="76">
         <f>B87</f>
         <v>37</v>
       </c>
-      <c r="C108" s="65"/>
-      <c r="D108" s="72">
+      <c r="C108" s="66"/>
+      <c r="D108" s="73">
         <f>B108</f>
         <v>37</v>
       </c>
@@ -7009,10 +7012,10 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-      <c r="L108" s="53"/>
+      <c r="L108" s="54"/>
       <c r="M108" s="4"/>
-      <c r="N108" s="53"/>
-      <c r="O108" s="53"/>
+      <c r="N108" s="54"/>
+      <c r="O108" s="54"/>
       <c r="P108" s="4"/>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
@@ -7022,16 +7025,16 @@
       <c r="V108" s="4"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="76">
+      <c r="A109" s="77">
         <f>E72</f>
         <v>47</v>
       </c>
-      <c r="B109" s="68">
+      <c r="B109" s="69">
         <f>D72</f>
         <v>29</v>
       </c>
-      <c r="C109" s="65"/>
-      <c r="D109" s="72">
+      <c r="C109" s="66"/>
+      <c r="D109" s="73">
         <f>B109</f>
         <v>29</v>
       </c>
@@ -7045,10 +7048,10 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="53"/>
+      <c r="L109" s="54"/>
       <c r="M109" s="4"/>
-      <c r="N109" s="53"/>
-      <c r="O109" s="53"/>
+      <c r="N109" s="54"/>
+      <c r="O109" s="54"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
@@ -7058,16 +7061,16 @@
       <c r="V109" s="4"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="76">
+      <c r="A110" s="77">
         <f>E73</f>
         <v>45</v>
       </c>
-      <c r="B110" s="68">
+      <c r="B110" s="69">
         <f>D73</f>
         <v>27</v>
       </c>
-      <c r="C110" s="65"/>
-      <c r="D110" s="72">
+      <c r="C110" s="66"/>
+      <c r="D110" s="73">
         <f>B110</f>
         <v>27</v>
       </c>
@@ -7081,10 +7084,10 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="53"/>
+      <c r="L110" s="54"/>
       <c r="M110" s="4"/>
-      <c r="N110" s="53"/>
-      <c r="O110" s="53"/>
+      <c r="N110" s="54"/>
+      <c r="O110" s="54"/>
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
@@ -7094,16 +7097,16 @@
       <c r="V110" s="4"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="76">
+      <c r="A111" s="77">
         <f>E74</f>
         <v>43</v>
       </c>
-      <c r="B111" s="68">
+      <c r="B111" s="69">
         <f>D74</f>
         <v>30</v>
       </c>
-      <c r="C111" s="65"/>
-      <c r="D111" s="72">
+      <c r="C111" s="66"/>
+      <c r="D111" s="73">
         <f>B111</f>
         <v>30</v>
       </c>
@@ -7117,10 +7120,10 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
-      <c r="L111" s="53"/>
+      <c r="L111" s="54"/>
       <c r="M111" s="4"/>
-      <c r="N111" s="53"/>
-      <c r="O111" s="53"/>
+      <c r="N111" s="54"/>
+      <c r="O111" s="54"/>
       <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
@@ -7130,16 +7133,16 @@
       <c r="V111" s="4"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="76">
+      <c r="A112" s="77">
         <f>E75</f>
         <v>41</v>
       </c>
-      <c r="B112" s="68">
+      <c r="B112" s="69">
         <f>D75</f>
         <v>24</v>
       </c>
-      <c r="C112" s="65"/>
-      <c r="D112" s="72">
+      <c r="C112" s="66"/>
+      <c r="D112" s="73">
         <f>B112</f>
         <v>24</v>
       </c>
@@ -7153,10 +7156,10 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="53"/>
+      <c r="L112" s="54"/>
       <c r="M112" s="4"/>
-      <c r="N112" s="53"/>
-      <c r="O112" s="53"/>
+      <c r="N112" s="54"/>
+      <c r="O112" s="54"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
@@ -7166,16 +7169,16 @@
       <c r="V112" s="4"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="76">
+      <c r="A113" s="77">
         <f>E76</f>
         <v>39</v>
       </c>
-      <c r="B113" s="68">
+      <c r="B113" s="69">
         <f>D76</f>
         <v>31</v>
       </c>
-      <c r="C113" s="65"/>
-      <c r="D113" s="72">
+      <c r="C113" s="66"/>
+      <c r="D113" s="73">
         <f>B113</f>
         <v>31</v>
       </c>
@@ -7189,10 +7192,10 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="53"/>
+      <c r="L113" s="54"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="53"/>
-      <c r="O113" s="53"/>
+      <c r="N113" s="54"/>
+      <c r="O113" s="54"/>
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
@@ -7202,16 +7205,16 @@
       <c r="V113" s="4"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="76">
+      <c r="A114" s="77">
         <f>E77</f>
         <v>37</v>
       </c>
-      <c r="B114" s="68">
+      <c r="B114" s="69">
         <f>D77</f>
         <v>21</v>
       </c>
-      <c r="C114" s="65"/>
-      <c r="D114" s="72">
+      <c r="C114" s="66"/>
+      <c r="D114" s="73">
         <f>B114</f>
         <v>21</v>
       </c>
@@ -7225,10 +7228,10 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="53"/>
+      <c r="L114" s="54"/>
       <c r="M114" s="4"/>
-      <c r="N114" s="53"/>
-      <c r="O114" s="53"/>
+      <c r="N114" s="54"/>
+      <c r="O114" s="54"/>
       <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
@@ -7238,16 +7241,16 @@
       <c r="V114" s="4"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="76">
+      <c r="A115" s="77">
         <f>E78</f>
         <v>35</v>
       </c>
-      <c r="B115" s="68">
+      <c r="B115" s="69">
         <f>D78</f>
         <v>32</v>
       </c>
-      <c r="C115" s="65"/>
-      <c r="D115" s="72">
+      <c r="C115" s="66"/>
+      <c r="D115" s="73">
         <f>B115</f>
         <v>32</v>
       </c>
@@ -7261,10 +7264,10 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
-      <c r="L115" s="53"/>
+      <c r="L115" s="54"/>
       <c r="M115" s="4"/>
-      <c r="N115" s="53"/>
-      <c r="O115" s="53"/>
+      <c r="N115" s="54"/>
+      <c r="O115" s="54"/>
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
@@ -7274,16 +7277,16 @@
       <c r="V115" s="4"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="76">
+      <c r="A116" s="77">
         <f>E79</f>
         <v>33</v>
       </c>
-      <c r="B116" s="68">
+      <c r="B116" s="69">
         <f>D79</f>
         <v>18</v>
       </c>
-      <c r="C116" s="65"/>
-      <c r="D116" s="72">
+      <c r="C116" s="66"/>
+      <c r="D116" s="73">
         <f>B116</f>
         <v>18</v>
       </c>
@@ -7297,10 +7300,10 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
-      <c r="L116" s="53"/>
+      <c r="L116" s="54"/>
       <c r="M116" s="4"/>
-      <c r="N116" s="53"/>
-      <c r="O116" s="53"/>
+      <c r="N116" s="54"/>
+      <c r="O116" s="54"/>
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
@@ -7310,16 +7313,16 @@
       <c r="V116" s="4"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="76">
+      <c r="A117" s="77">
         <f>E80</f>
         <v>31</v>
       </c>
-      <c r="B117" s="68">
+      <c r="B117" s="69">
         <f>D80</f>
         <v>47</v>
       </c>
-      <c r="C117" s="65"/>
-      <c r="D117" s="72">
+      <c r="C117" s="66"/>
+      <c r="D117" s="73">
         <f>B117</f>
         <v>47</v>
       </c>
@@ -7333,10 +7336,10 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-      <c r="L117" s="53"/>
+      <c r="L117" s="54"/>
       <c r="M117" s="4"/>
-      <c r="N117" s="53"/>
-      <c r="O117" s="53"/>
+      <c r="N117" s="54"/>
+      <c r="O117" s="54"/>
       <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
@@ -7346,16 +7349,16 @@
       <c r="V117" s="4"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="76">
+      <c r="A118" s="77">
         <f>E81</f>
         <v>29</v>
       </c>
-      <c r="B118" s="68">
+      <c r="B118" s="69">
         <f>D81</f>
         <v>33</v>
       </c>
-      <c r="C118" s="65"/>
-      <c r="D118" s="72">
+      <c r="C118" s="66"/>
+      <c r="D118" s="73">
         <f>B118</f>
         <v>33</v>
       </c>
@@ -7369,10 +7372,10 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="53"/>
+      <c r="L118" s="54"/>
       <c r="M118" s="4"/>
-      <c r="N118" s="53"/>
-      <c r="O118" s="53"/>
+      <c r="N118" s="54"/>
+      <c r="O118" s="54"/>
       <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
@@ -7382,16 +7385,16 @@
       <c r="V118" s="4"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="76">
+      <c r="A119" s="77">
         <f>E82</f>
         <v>27</v>
       </c>
-      <c r="B119" s="68">
+      <c r="B119" s="69">
         <f>D82</f>
         <v>44</v>
       </c>
-      <c r="C119" s="65"/>
-      <c r="D119" s="72">
+      <c r="C119" s="66"/>
+      <c r="D119" s="73">
         <f>B119</f>
         <v>44</v>
       </c>
@@ -7405,10 +7408,10 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
-      <c r="L119" s="53"/>
+      <c r="L119" s="54"/>
       <c r="M119" s="4"/>
-      <c r="N119" s="53"/>
-      <c r="O119" s="53"/>
+      <c r="N119" s="54"/>
+      <c r="O119" s="54"/>
       <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
@@ -7418,16 +7421,16 @@
       <c r="V119" s="4"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="76">
+      <c r="A120" s="77">
         <f>E83</f>
         <v>25</v>
       </c>
-      <c r="B120" s="68">
+      <c r="B120" s="69">
         <f>D83</f>
         <v>34</v>
       </c>
-      <c r="C120" s="65"/>
-      <c r="D120" s="72">
+      <c r="C120" s="66"/>
+      <c r="D120" s="73">
         <f>B120</f>
         <v>34</v>
       </c>
@@ -7441,10 +7444,10 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
-      <c r="L120" s="53"/>
+      <c r="L120" s="54"/>
       <c r="M120" s="4"/>
-      <c r="N120" s="53"/>
-      <c r="O120" s="53"/>
+      <c r="N120" s="54"/>
+      <c r="O120" s="54"/>
       <c r="P120" s="4"/>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
@@ -7454,16 +7457,16 @@
       <c r="V120" s="4"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="76">
+      <c r="A121" s="77">
         <f>E84</f>
         <v>23</v>
       </c>
-      <c r="B121" s="68">
+      <c r="B121" s="69">
         <f>D84</f>
         <v>41</v>
       </c>
-      <c r="C121" s="65"/>
-      <c r="D121" s="72">
+      <c r="C121" s="66"/>
+      <c r="D121" s="73">
         <f>B121</f>
         <v>41</v>
       </c>
@@ -7477,10 +7480,10 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-      <c r="L121" s="53"/>
+      <c r="L121" s="54"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="53"/>
-      <c r="O121" s="53"/>
+      <c r="N121" s="54"/>
+      <c r="O121" s="54"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
@@ -7490,16 +7493,16 @@
       <c r="V121" s="4"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="76">
+      <c r="A122" s="77">
         <f>E85</f>
         <v>21</v>
       </c>
-      <c r="B122" s="68">
+      <c r="B122" s="69">
         <f>D85</f>
         <v>35</v>
       </c>
-      <c r="C122" s="65"/>
-      <c r="D122" s="72">
+      <c r="C122" s="66"/>
+      <c r="D122" s="73">
         <f>B122</f>
         <v>35</v>
       </c>
@@ -7513,10 +7516,10 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
-      <c r="L122" s="53"/>
+      <c r="L122" s="54"/>
       <c r="M122" s="4"/>
-      <c r="N122" s="53"/>
-      <c r="O122" s="53"/>
+      <c r="N122" s="54"/>
+      <c r="O122" s="54"/>
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
@@ -7526,16 +7529,16 @@
       <c r="V122" s="4"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="76">
+      <c r="A123" s="77">
         <f>E86</f>
         <v>19</v>
       </c>
-      <c r="B123" s="68">
+      <c r="B123" s="69">
         <f>D86</f>
         <v>38</v>
       </c>
-      <c r="C123" s="65"/>
-      <c r="D123" s="72">
+      <c r="C123" s="66"/>
+      <c r="D123" s="73">
         <f>B123</f>
         <v>38</v>
       </c>
@@ -7549,10 +7552,10 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
-      <c r="L123" s="53"/>
+      <c r="L123" s="54"/>
       <c r="M123" s="4"/>
-      <c r="N123" s="53"/>
-      <c r="O123" s="53"/>
+      <c r="N123" s="54"/>
+      <c r="O123" s="54"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
@@ -7562,16 +7565,16 @@
       <c r="V123" s="4"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="76">
+      <c r="A124" s="77">
         <f>E87</f>
         <v>17</v>
       </c>
-      <c r="B124" s="68">
+      <c r="B124" s="69">
         <f>D87</f>
         <v>36</v>
       </c>
-      <c r="C124" s="65"/>
-      <c r="D124" s="72">
+      <c r="C124" s="66"/>
+      <c r="D124" s="73">
         <f>B124</f>
         <v>36</v>
       </c>
@@ -7585,10 +7588,10 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
-      <c r="L124" s="53"/>
+      <c r="L124" s="54"/>
       <c r="M124" s="4"/>
-      <c r="N124" s="53"/>
-      <c r="O124" s="53"/>
+      <c r="N124" s="54"/>
+      <c r="O124" s="54"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
@@ -7598,16 +7601,16 @@
       <c r="V124" s="4"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="76">
+      <c r="A125" s="77">
         <f>G72</f>
         <v>49</v>
       </c>
-      <c r="B125" s="68">
+      <c r="B125" s="69">
         <f>H72</f>
         <v>1</v>
       </c>
-      <c r="C125" s="65"/>
-      <c r="D125" s="72">
+      <c r="C125" s="66"/>
+      <c r="D125" s="73">
         <f>B125</f>
         <v>1</v>
       </c>
@@ -7621,10 +7624,10 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
-      <c r="L125" s="53"/>
+      <c r="L125" s="54"/>
       <c r="M125" s="4"/>
-      <c r="N125" s="53"/>
-      <c r="O125" s="53"/>
+      <c r="N125" s="54"/>
+      <c r="O125" s="54"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
@@ -7634,16 +7637,16 @@
       <c r="V125" s="4"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="76">
+      <c r="A126" s="77">
         <f>G73</f>
         <v>51</v>
       </c>
-      <c r="B126" s="68">
+      <c r="B126" s="69">
         <f>H73</f>
         <v>3</v>
       </c>
-      <c r="C126" s="65"/>
-      <c r="D126" s="72">
+      <c r="C126" s="66"/>
+      <c r="D126" s="73">
         <f>B126</f>
         <v>3</v>
       </c>
@@ -7657,10 +7660,10 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
-      <c r="L126" s="53"/>
+      <c r="L126" s="54"/>
       <c r="M126" s="4"/>
-      <c r="N126" s="53"/>
-      <c r="O126" s="53"/>
+      <c r="N126" s="54"/>
+      <c r="O126" s="54"/>
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
@@ -7670,16 +7673,16 @@
       <c r="V126" s="4"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="76">
+      <c r="A127" s="77">
         <f>G74</f>
         <v>53</v>
       </c>
-      <c r="B127" s="68">
+      <c r="B127" s="69">
         <f>H74</f>
         <v>5</v>
       </c>
-      <c r="C127" s="65"/>
-      <c r="D127" s="72">
+      <c r="C127" s="66"/>
+      <c r="D127" s="73">
         <f>B127</f>
         <v>5</v>
       </c>
@@ -7693,10 +7696,10 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-      <c r="L127" s="53"/>
+      <c r="L127" s="54"/>
       <c r="M127" s="4"/>
-      <c r="N127" s="53"/>
-      <c r="O127" s="53"/>
+      <c r="N127" s="54"/>
+      <c r="O127" s="54"/>
       <c r="P127" s="4"/>
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
@@ -7706,16 +7709,16 @@
       <c r="V127" s="4"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="76">
+      <c r="A128" s="77">
         <f>G75</f>
         <v>55</v>
       </c>
-      <c r="B128" s="68">
+      <c r="B128" s="69">
         <f>H75</f>
         <v>7</v>
       </c>
-      <c r="C128" s="65"/>
-      <c r="D128" s="72">
+      <c r="C128" s="66"/>
+      <c r="D128" s="73">
         <f>B128</f>
         <v>7</v>
       </c>
@@ -7729,10 +7732,10 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
-      <c r="L128" s="53"/>
+      <c r="L128" s="54"/>
       <c r="M128" s="4"/>
-      <c r="N128" s="53"/>
-      <c r="O128" s="53"/>
+      <c r="N128" s="54"/>
+      <c r="O128" s="54"/>
       <c r="P128" s="4"/>
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
@@ -7742,16 +7745,16 @@
       <c r="V128" s="4"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="76">
+      <c r="A129" s="77">
         <f>G76</f>
         <v>57</v>
       </c>
-      <c r="B129" s="68">
+      <c r="B129" s="69">
         <f>H76</f>
         <v>9</v>
       </c>
-      <c r="C129" s="65"/>
-      <c r="D129" s="72">
+      <c r="C129" s="66"/>
+      <c r="D129" s="73">
         <f>B129</f>
         <v>9</v>
       </c>
@@ -7765,10 +7768,10 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
-      <c r="L129" s="53"/>
+      <c r="L129" s="54"/>
       <c r="M129" s="4"/>
-      <c r="N129" s="53"/>
-      <c r="O129" s="53"/>
+      <c r="N129" s="54"/>
+      <c r="O129" s="54"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
@@ -7778,16 +7781,16 @@
       <c r="V129" s="4"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="76">
+      <c r="A130" s="77">
         <f>G77</f>
         <v>59</v>
       </c>
-      <c r="B130" s="68">
+      <c r="B130" s="69">
         <f>H77</f>
         <v>11</v>
       </c>
-      <c r="C130" s="65"/>
-      <c r="D130" s="72">
+      <c r="C130" s="66"/>
+      <c r="D130" s="73">
         <f>B130</f>
         <v>11</v>
       </c>
@@ -7801,10 +7804,10 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
-      <c r="L130" s="53"/>
+      <c r="L130" s="54"/>
       <c r="M130" s="4"/>
-      <c r="N130" s="53"/>
-      <c r="O130" s="53"/>
+      <c r="N130" s="54"/>
+      <c r="O130" s="54"/>
       <c r="P130" s="4"/>
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
@@ -7814,16 +7817,16 @@
       <c r="V130" s="4"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="76">
+      <c r="A131" s="77">
         <f>G78</f>
         <v>61</v>
       </c>
-      <c r="B131" s="68">
+      <c r="B131" s="69">
         <f>H78</f>
         <v>13</v>
       </c>
-      <c r="C131" s="65"/>
-      <c r="D131" s="72">
+      <c r="C131" s="66"/>
+      <c r="D131" s="73">
         <f>B131</f>
         <v>13</v>
       </c>
@@ -7837,10 +7840,10 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
-      <c r="L131" s="53"/>
+      <c r="L131" s="54"/>
       <c r="M131" s="4"/>
-      <c r="N131" s="53"/>
-      <c r="O131" s="53"/>
+      <c r="N131" s="54"/>
+      <c r="O131" s="54"/>
       <c r="P131" s="4"/>
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
@@ -7850,16 +7853,16 @@
       <c r="V131" s="4"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="76">
+      <c r="A132" s="77">
         <f>G79</f>
         <v>63</v>
       </c>
-      <c r="B132" s="68">
+      <c r="B132" s="69">
         <f>H79</f>
         <v>15</v>
       </c>
-      <c r="C132" s="65"/>
-      <c r="D132" s="72">
+      <c r="C132" s="66"/>
+      <c r="D132" s="73">
         <f>B132</f>
         <v>15</v>
       </c>
@@ -7873,10 +7876,10 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
-      <c r="L132" s="53"/>
+      <c r="L132" s="54"/>
       <c r="M132" s="4"/>
-      <c r="N132" s="53"/>
-      <c r="O132" s="53"/>
+      <c r="N132" s="54"/>
+      <c r="O132" s="54"/>
       <c r="P132" s="4"/>
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
@@ -7886,16 +7889,16 @@
       <c r="V132" s="4"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="76">
+      <c r="A133" s="77">
         <f>G80</f>
         <v>1</v>
       </c>
-      <c r="B133" s="68">
+      <c r="B133" s="69">
         <f>H80</f>
         <v>50</v>
       </c>
-      <c r="C133" s="65"/>
-      <c r="D133" s="72">
+      <c r="C133" s="66"/>
+      <c r="D133" s="73">
         <f>B133</f>
         <v>50</v>
       </c>
@@ -7909,10 +7912,10 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
-      <c r="L133" s="53"/>
+      <c r="L133" s="54"/>
       <c r="M133" s="4"/>
-      <c r="N133" s="53"/>
-      <c r="O133" s="53"/>
+      <c r="N133" s="54"/>
+      <c r="O133" s="54"/>
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
@@ -7922,16 +7925,16 @@
       <c r="V133" s="4"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="76">
+      <c r="A134" s="77">
         <f>G81</f>
         <v>3</v>
       </c>
-      <c r="B134" s="68">
+      <c r="B134" s="69">
         <f>H81</f>
         <v>52</v>
       </c>
-      <c r="C134" s="65"/>
-      <c r="D134" s="72">
+      <c r="C134" s="66"/>
+      <c r="D134" s="73">
         <f>B134</f>
         <v>52</v>
       </c>
@@ -7945,10 +7948,10 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
-      <c r="L134" s="53"/>
+      <c r="L134" s="54"/>
       <c r="M134" s="4"/>
-      <c r="N134" s="53"/>
-      <c r="O134" s="53"/>
+      <c r="N134" s="54"/>
+      <c r="O134" s="54"/>
       <c r="P134" s="4"/>
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
@@ -7958,16 +7961,16 @@
       <c r="V134" s="4"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="76">
+      <c r="A135" s="77">
         <f>G82</f>
         <v>5</v>
       </c>
-      <c r="B135" s="68">
+      <c r="B135" s="69">
         <f>H82</f>
         <v>54</v>
       </c>
-      <c r="C135" s="65"/>
-      <c r="D135" s="72">
+      <c r="C135" s="66"/>
+      <c r="D135" s="73">
         <f>B135</f>
         <v>54</v>
       </c>
@@ -7981,10 +7984,10 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="53"/>
+      <c r="L135" s="54"/>
       <c r="M135" s="4"/>
-      <c r="N135" s="53"/>
-      <c r="O135" s="53"/>
+      <c r="N135" s="54"/>
+      <c r="O135" s="54"/>
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
@@ -7994,16 +7997,16 @@
       <c r="V135" s="4"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="76">
+      <c r="A136" s="77">
         <f>G83</f>
         <v>7</v>
       </c>
-      <c r="B136" s="68">
+      <c r="B136" s="69">
         <f>H83</f>
         <v>56</v>
       </c>
-      <c r="C136" s="65"/>
-      <c r="D136" s="72">
+      <c r="C136" s="66"/>
+      <c r="D136" s="73">
         <f>B136</f>
         <v>56</v>
       </c>
@@ -8017,10 +8020,10 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
-      <c r="L136" s="53"/>
+      <c r="L136" s="54"/>
       <c r="M136" s="4"/>
-      <c r="N136" s="53"/>
-      <c r="O136" s="53"/>
+      <c r="N136" s="54"/>
+      <c r="O136" s="54"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
@@ -8030,16 +8033,16 @@
       <c r="V136" s="4"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="76">
+      <c r="A137" s="77">
         <f>G84</f>
         <v>9</v>
       </c>
-      <c r="B137" s="68">
+      <c r="B137" s="69">
         <f>H84</f>
         <v>58</v>
       </c>
-      <c r="C137" s="65"/>
-      <c r="D137" s="72">
+      <c r="C137" s="66"/>
+      <c r="D137" s="73">
         <f>B137</f>
         <v>58</v>
       </c>
@@ -8053,10 +8056,10 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
-      <c r="L137" s="53"/>
+      <c r="L137" s="54"/>
       <c r="M137" s="4"/>
-      <c r="N137" s="53"/>
-      <c r="O137" s="53"/>
+      <c r="N137" s="54"/>
+      <c r="O137" s="54"/>
       <c r="P137" s="4"/>
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
@@ -8066,16 +8069,16 @@
       <c r="V137" s="4"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="76">
+      <c r="A138" s="77">
         <f>G85</f>
         <v>11</v>
       </c>
-      <c r="B138" s="68">
+      <c r="B138" s="69">
         <f>H85</f>
         <v>60</v>
       </c>
-      <c r="C138" s="65"/>
-      <c r="D138" s="72">
+      <c r="C138" s="66"/>
+      <c r="D138" s="73">
         <f>B138</f>
         <v>60</v>
       </c>
@@ -8089,10 +8092,10 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
-      <c r="L138" s="53"/>
+      <c r="L138" s="54"/>
       <c r="M138" s="4"/>
-      <c r="N138" s="53"/>
-      <c r="O138" s="53"/>
+      <c r="N138" s="54"/>
+      <c r="O138" s="54"/>
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
@@ -8102,16 +8105,16 @@
       <c r="V138" s="4"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="76">
+      <c r="A139" s="77">
         <f>G86</f>
         <v>13</v>
       </c>
-      <c r="B139" s="68">
+      <c r="B139" s="69">
         <f>H86</f>
         <v>62</v>
       </c>
-      <c r="C139" s="65"/>
-      <c r="D139" s="72">
+      <c r="C139" s="66"/>
+      <c r="D139" s="73">
         <f>B139</f>
         <v>62</v>
       </c>
@@ -8125,10 +8128,10 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
-      <c r="L139" s="53"/>
+      <c r="L139" s="54"/>
       <c r="M139" s="4"/>
-      <c r="N139" s="53"/>
-      <c r="O139" s="53"/>
+      <c r="N139" s="54"/>
+      <c r="O139" s="54"/>
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
@@ -8138,16 +8141,16 @@
       <c r="V139" s="4"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="76">
+      <c r="A140" s="77">
         <f>G87</f>
         <v>15</v>
       </c>
-      <c r="B140" s="68">
+      <c r="B140" s="69">
         <f>H87</f>
         <v>64</v>
       </c>
-      <c r="C140" s="65"/>
-      <c r="D140" s="72">
+      <c r="C140" s="66"/>
+      <c r="D140" s="73">
         <f>B140</f>
         <v>64</v>
       </c>
@@ -8161,10 +8164,10 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
-      <c r="L140" s="53"/>
+      <c r="L140" s="54"/>
       <c r="M140" s="4"/>
-      <c r="N140" s="53"/>
-      <c r="O140" s="53"/>
+      <c r="N140" s="54"/>
+      <c r="O140" s="54"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
@@ -8174,16 +8177,16 @@
       <c r="V140" s="4"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="76">
+      <c r="A141" s="77">
         <f>J72</f>
         <v>48</v>
       </c>
-      <c r="B141" s="68">
+      <c r="B141" s="69">
         <f>I72</f>
         <v>2</v>
       </c>
-      <c r="C141" s="65"/>
-      <c r="D141" s="72">
+      <c r="C141" s="66"/>
+      <c r="D141" s="73">
         <f>B141</f>
         <v>2</v>
       </c>
@@ -8197,10 +8200,10 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="53"/>
+      <c r="L141" s="54"/>
       <c r="M141" s="4"/>
-      <c r="N141" s="53"/>
-      <c r="O141" s="53"/>
+      <c r="N141" s="54"/>
+      <c r="O141" s="54"/>
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
@@ -8210,16 +8213,16 @@
       <c r="V141" s="4"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="76">
+      <c r="A142" s="77">
         <f>J73</f>
         <v>50</v>
       </c>
-      <c r="B142" s="68">
+      <c r="B142" s="69">
         <f>I73</f>
         <v>4</v>
       </c>
-      <c r="C142" s="65"/>
-      <c r="D142" s="72">
+      <c r="C142" s="66"/>
+      <c r="D142" s="73">
         <f>B142</f>
         <v>4</v>
       </c>
@@ -8233,10 +8236,10 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="53"/>
+      <c r="L142" s="54"/>
       <c r="M142" s="4"/>
-      <c r="N142" s="53"/>
-      <c r="O142" s="53"/>
+      <c r="N142" s="54"/>
+      <c r="O142" s="54"/>
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
@@ -8246,16 +8249,16 @@
       <c r="V142" s="4"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="76">
+      <c r="A143" s="77">
         <f>J74</f>
         <v>52</v>
       </c>
-      <c r="B143" s="68">
+      <c r="B143" s="69">
         <f>I74</f>
         <v>6</v>
       </c>
-      <c r="C143" s="65"/>
-      <c r="D143" s="72">
+      <c r="C143" s="66"/>
+      <c r="D143" s="73">
         <f>B143</f>
         <v>6</v>
       </c>
@@ -8269,10 +8272,10 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
-      <c r="L143" s="53"/>
+      <c r="L143" s="54"/>
       <c r="M143" s="4"/>
-      <c r="N143" s="53"/>
-      <c r="O143" s="53"/>
+      <c r="N143" s="54"/>
+      <c r="O143" s="54"/>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
@@ -8282,16 +8285,16 @@
       <c r="V143" s="4"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="76">
+      <c r="A144" s="77">
         <f>J75</f>
         <v>54</v>
       </c>
-      <c r="B144" s="68">
+      <c r="B144" s="69">
         <f>I75</f>
         <v>8</v>
       </c>
-      <c r="C144" s="65"/>
-      <c r="D144" s="72">
+      <c r="C144" s="66"/>
+      <c r="D144" s="73">
         <f>B144</f>
         <v>8</v>
       </c>
@@ -8305,10 +8308,10 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
-      <c r="L144" s="53"/>
+      <c r="L144" s="54"/>
       <c r="M144" s="4"/>
-      <c r="N144" s="53"/>
-      <c r="O144" s="53"/>
+      <c r="N144" s="54"/>
+      <c r="O144" s="54"/>
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
@@ -8318,16 +8321,16 @@
       <c r="V144" s="4"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="76">
+      <c r="A145" s="77">
         <f>J76</f>
         <v>56</v>
       </c>
-      <c r="B145" s="68">
+      <c r="B145" s="69">
         <f>I76</f>
         <v>10</v>
       </c>
-      <c r="C145" s="65"/>
-      <c r="D145" s="72">
+      <c r="C145" s="66"/>
+      <c r="D145" s="73">
         <f>B145</f>
         <v>10</v>
       </c>
@@ -8341,10 +8344,10 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
-      <c r="L145" s="53"/>
+      <c r="L145" s="54"/>
       <c r="M145" s="4"/>
-      <c r="N145" s="53"/>
-      <c r="O145" s="53"/>
+      <c r="N145" s="54"/>
+      <c r="O145" s="54"/>
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
@@ -8354,16 +8357,16 @@
       <c r="V145" s="4"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="76">
+      <c r="A146" s="77">
         <f>J77</f>
         <v>58</v>
       </c>
-      <c r="B146" s="68">
+      <c r="B146" s="69">
         <f>I77</f>
         <v>12</v>
       </c>
-      <c r="C146" s="65"/>
-      <c r="D146" s="72">
+      <c r="C146" s="66"/>
+      <c r="D146" s="73">
         <f>B146</f>
         <v>12</v>
       </c>
@@ -8377,10 +8380,10 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
-      <c r="L146" s="53"/>
+      <c r="L146" s="54"/>
       <c r="M146" s="4"/>
-      <c r="N146" s="53"/>
-      <c r="O146" s="53"/>
+      <c r="N146" s="54"/>
+      <c r="O146" s="54"/>
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
@@ -8390,16 +8393,16 @@
       <c r="V146" s="4"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="76">
+      <c r="A147" s="77">
         <f>J78</f>
         <v>60</v>
       </c>
-      <c r="B147" s="68">
+      <c r="B147" s="69">
         <f>I78</f>
         <v>14</v>
       </c>
-      <c r="C147" s="65"/>
-      <c r="D147" s="72">
+      <c r="C147" s="66"/>
+      <c r="D147" s="73">
         <f>B147</f>
         <v>14</v>
       </c>
@@ -8413,10 +8416,10 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
-      <c r="L147" s="53"/>
+      <c r="L147" s="54"/>
       <c r="M147" s="4"/>
-      <c r="N147" s="53"/>
-      <c r="O147" s="53"/>
+      <c r="N147" s="54"/>
+      <c r="O147" s="54"/>
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
@@ -8426,16 +8429,16 @@
       <c r="V147" s="4"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="76">
+      <c r="A148" s="77">
         <f>J79</f>
         <v>62</v>
       </c>
-      <c r="B148" s="68">
+      <c r="B148" s="69">
         <f>I79</f>
         <v>16</v>
       </c>
-      <c r="C148" s="65"/>
-      <c r="D148" s="72">
+      <c r="C148" s="66"/>
+      <c r="D148" s="73">
         <f>B148</f>
         <v>16</v>
       </c>
@@ -8449,10 +8452,10 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
-      <c r="L148" s="53"/>
+      <c r="L148" s="54"/>
       <c r="M148" s="4"/>
-      <c r="N148" s="53"/>
-      <c r="O148" s="53"/>
+      <c r="N148" s="54"/>
+      <c r="O148" s="54"/>
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
@@ -8462,16 +8465,16 @@
       <c r="V148" s="4"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="76">
+      <c r="A149" s="77">
         <f>J80</f>
         <v>0</v>
       </c>
-      <c r="B149" s="68">
+      <c r="B149" s="69">
         <f>I80</f>
         <v>49</v>
       </c>
-      <c r="C149" s="65"/>
-      <c r="D149" s="72">
+      <c r="C149" s="66"/>
+      <c r="D149" s="73">
         <f>B149</f>
         <v>49</v>
       </c>
@@ -8485,10 +8488,10 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
-      <c r="L149" s="53"/>
+      <c r="L149" s="54"/>
       <c r="M149" s="4"/>
-      <c r="N149" s="53"/>
-      <c r="O149" s="53"/>
+      <c r="N149" s="54"/>
+      <c r="O149" s="54"/>
       <c r="P149" s="4"/>
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
@@ -8498,16 +8501,16 @@
       <c r="V149" s="4"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="76">
+      <c r="A150" s="77">
         <f>J81</f>
         <v>2</v>
       </c>
-      <c r="B150" s="68">
+      <c r="B150" s="69">
         <f>I81</f>
         <v>51</v>
       </c>
-      <c r="C150" s="65"/>
-      <c r="D150" s="72">
+      <c r="C150" s="66"/>
+      <c r="D150" s="73">
         <f>B150</f>
         <v>51</v>
       </c>
@@ -8521,10 +8524,10 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
-      <c r="L150" s="53"/>
+      <c r="L150" s="54"/>
       <c r="M150" s="4"/>
-      <c r="N150" s="53"/>
-      <c r="O150" s="53"/>
+      <c r="N150" s="54"/>
+      <c r="O150" s="54"/>
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
@@ -8534,16 +8537,16 @@
       <c r="V150" s="4"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="76">
+      <c r="A151" s="77">
         <f>J82</f>
         <v>4</v>
       </c>
-      <c r="B151" s="68">
+      <c r="B151" s="69">
         <f>I82</f>
         <v>53</v>
       </c>
-      <c r="C151" s="65"/>
-      <c r="D151" s="72">
+      <c r="C151" s="66"/>
+      <c r="D151" s="73">
         <f>B151</f>
         <v>53</v>
       </c>
@@ -8557,10 +8560,10 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
-      <c r="L151" s="53"/>
+      <c r="L151" s="54"/>
       <c r="M151" s="4"/>
-      <c r="N151" s="53"/>
-      <c r="O151" s="53"/>
+      <c r="N151" s="54"/>
+      <c r="O151" s="54"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
@@ -8570,16 +8573,16 @@
       <c r="V151" s="4"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="76">
+      <c r="A152" s="77">
         <f>J83</f>
         <v>6</v>
       </c>
-      <c r="B152" s="68">
+      <c r="B152" s="69">
         <f>I83</f>
         <v>55</v>
       </c>
-      <c r="C152" s="65"/>
-      <c r="D152" s="72">
+      <c r="C152" s="66"/>
+      <c r="D152" s="73">
         <f>B152</f>
         <v>55</v>
       </c>
@@ -8593,10 +8596,10 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
-      <c r="L152" s="53"/>
+      <c r="L152" s="54"/>
       <c r="M152" s="4"/>
-      <c r="N152" s="53"/>
-      <c r="O152" s="53"/>
+      <c r="N152" s="54"/>
+      <c r="O152" s="54"/>
       <c r="P152" s="4"/>
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
@@ -8606,16 +8609,16 @@
       <c r="V152" s="4"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="76">
+      <c r="A153" s="77">
         <f>J84</f>
         <v>8</v>
       </c>
-      <c r="B153" s="68">
+      <c r="B153" s="69">
         <f>I84</f>
         <v>57</v>
       </c>
-      <c r="C153" s="65"/>
-      <c r="D153" s="72">
+      <c r="C153" s="66"/>
+      <c r="D153" s="73">
         <f>B153</f>
         <v>57</v>
       </c>
@@ -8629,10 +8632,10 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
-      <c r="L153" s="53"/>
+      <c r="L153" s="54"/>
       <c r="M153" s="4"/>
-      <c r="N153" s="53"/>
-      <c r="O153" s="53"/>
+      <c r="N153" s="54"/>
+      <c r="O153" s="54"/>
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
@@ -8642,16 +8645,16 @@
       <c r="V153" s="4"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="76">
+      <c r="A154" s="77">
         <f>J85</f>
         <v>10</v>
       </c>
-      <c r="B154" s="68">
+      <c r="B154" s="69">
         <f>I85</f>
         <v>59</v>
       </c>
-      <c r="C154" s="65"/>
-      <c r="D154" s="72">
+      <c r="C154" s="66"/>
+      <c r="D154" s="73">
         <f>B154</f>
         <v>59</v>
       </c>
@@ -8665,10 +8668,10 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
-      <c r="L154" s="53"/>
+      <c r="L154" s="54"/>
       <c r="M154" s="4"/>
-      <c r="N154" s="53"/>
-      <c r="O154" s="53"/>
+      <c r="N154" s="54"/>
+      <c r="O154" s="54"/>
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
@@ -8678,16 +8681,16 @@
       <c r="V154" s="4"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="76">
+      <c r="A155" s="77">
         <f>J86</f>
         <v>12</v>
       </c>
-      <c r="B155" s="68">
+      <c r="B155" s="69">
         <f>I86</f>
         <v>61</v>
       </c>
-      <c r="C155" s="65"/>
-      <c r="D155" s="72">
+      <c r="C155" s="66"/>
+      <c r="D155" s="73">
         <f>B155</f>
         <v>61</v>
       </c>
@@ -8701,10 +8704,10 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
-      <c r="L155" s="53"/>
+      <c r="L155" s="54"/>
       <c r="M155" s="4"/>
-      <c r="N155" s="53"/>
-      <c r="O155" s="53"/>
+      <c r="N155" s="54"/>
+      <c r="O155" s="54"/>
       <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
@@ -8714,20 +8717,20 @@
       <c r="V155" s="4"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="77">
+      <c r="A156" s="78">
         <f>J87</f>
         <v>14</v>
       </c>
-      <c r="B156" s="78">
+      <c r="B156" s="79">
         <f>I87</f>
         <v>63</v>
       </c>
-      <c r="C156" s="65"/>
-      <c r="D156" s="79">
+      <c r="C156" s="66"/>
+      <c r="D156" s="80">
         <f>B156</f>
         <v>63</v>
       </c>
-      <c r="E156" s="80">
+      <c r="E156" s="81">
         <f>A156</f>
         <v>14</v>
       </c>
@@ -8737,10 +8740,10 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
-      <c r="L156" s="53"/>
+      <c r="L156" s="54"/>
       <c r="M156" s="4"/>
-      <c r="N156" s="53"/>
-      <c r="O156" s="53"/>
+      <c r="N156" s="54"/>
+      <c r="O156" s="54"/>
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
